--- a/Dehalogenation_colorimetric_assays/Fluoride calibrations + preparation.xlsx
+++ b/Dehalogenation_colorimetric_assays/Fluoride calibrations + preparation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="0-100 micromolar F-" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,11 +297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,7 +1122,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14100720555997917"/>
+          <c:y val="0.16177830764112233"/>
+          <c:w val="0.80875559094439042"/>
+          <c:h val="0.65365559498724646"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3297,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3324,7 +3334,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3356,7 +3366,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
@@ -3386,7 +3396,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3453,40 +3463,40 @@
         <v>6</v>
       </c>
       <c r="C11" s="9">
-        <f>C9/C10</f>
+        <f t="shared" ref="C11:J11" si="0">C9/C10</f>
         <v>1.115</v>
       </c>
       <c r="D11" s="9">
-        <f>D9/D10</f>
+        <f t="shared" si="0"/>
         <v>1.1368159203980099</v>
       </c>
       <c r="E11" s="9">
-        <f>E9/E10</f>
+        <f t="shared" si="0"/>
         <v>1.228494623655914</v>
       </c>
       <c r="F11" s="9">
-        <f>F9/F10</f>
+        <f t="shared" si="0"/>
         <v>1.2941176470588234</v>
       </c>
       <c r="G11" s="9">
-        <f>G9/G10</f>
+        <f t="shared" si="0"/>
         <v>1.4630225080385852</v>
       </c>
       <c r="H11" s="9">
-        <f>H9/H10</f>
+        <f t="shared" si="0"/>
         <v>1.6348122866894199</v>
       </c>
       <c r="I11" s="9">
-        <f>I9/I10</f>
+        <f t="shared" si="0"/>
         <v>1.7536764705882351</v>
       </c>
       <c r="J11" s="10">
-        <f>J9/J10</f>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3553,40 +3563,40 @@
         <v>6</v>
       </c>
       <c r="C14" s="9">
-        <f>C12/C13</f>
+        <f t="shared" ref="C14:J14" si="1">C12/C13</f>
         <v>1.0536585365853659</v>
       </c>
       <c r="D14" s="9">
-        <f>D12/D13</f>
+        <f t="shared" si="1"/>
         <v>1.0843373493975905</v>
       </c>
       <c r="E14" s="9">
-        <f>E12/E13</f>
+        <f t="shared" si="1"/>
         <v>1.1250000000000002</v>
       </c>
       <c r="F14" s="9">
-        <f>F12/F13</f>
+        <f t="shared" si="1"/>
         <v>1.2117962466487937</v>
       </c>
       <c r="G14" s="9">
-        <f>G12/G13</f>
+        <f t="shared" si="1"/>
         <v>1.3611111111111112</v>
       </c>
       <c r="H14" s="9">
-        <f>H12/H13</f>
+        <f t="shared" si="1"/>
         <v>1.5824561403508774</v>
       </c>
       <c r="I14" s="9">
-        <f>I12/I13</f>
+        <f t="shared" si="1"/>
         <v>1.731060606060606</v>
       </c>
       <c r="J14" s="10">
-        <f>J12/J13</f>
+        <f t="shared" si="1"/>
         <v>1.7258687258687258</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3653,35 +3663,35 @@
         <v>6</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" ref="C17" si="0">C15/C16</f>
+        <f t="shared" ref="C17" si="2">C15/C16</f>
         <v>1.0151133501259446</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ref="D17" si="1">D15/D16</f>
+        <f t="shared" ref="D17" si="3">D15/D16</f>
         <v>1.0435897435897434</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" ref="E17" si="2">E15/E16</f>
+        <f t="shared" ref="E17" si="4">E15/E16</f>
         <v>1.0582010582010581</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" ref="F17" si="3">F15/F16</f>
+        <f t="shared" ref="F17" si="5">F15/F16</f>
         <v>1.18475073313783</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" ref="G17" si="4">G15/G16</f>
+        <f t="shared" ref="G17" si="6">G15/G16</f>
         <v>1.3096774193548388</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" ref="H17" si="5">H15/H16</f>
+        <f t="shared" ref="H17" si="7">H15/H16</f>
         <v>1.6339622641509433</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" ref="I17" si="6">I15/I16</f>
+        <f t="shared" ref="I17" si="8">I15/I16</f>
         <v>1.7109375</v>
       </c>
       <c r="J17" s="10">
-        <f t="shared" ref="J17" si="7">J15/J16</f>
+        <f t="shared" ref="J17" si="9">J15/J16</f>
         <v>1.7790697674418605</v>
       </c>
     </row>
@@ -3697,31 +3707,31 @@
         <v>1.0612572955704369</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" ref="D18:J18" si="8">AVERAGE(D11,D14,D17)</f>
+        <f t="shared" ref="D18:J18" si="10">AVERAGE(D11,D14,D17)</f>
         <v>1.0882476711284479</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.137231893952324</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2302215422818155</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3779370128348452</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6170768970637468</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7318915255496137</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7794239422146401</v>
       </c>
     </row>
@@ -3735,31 +3745,31 @@
         <v>5.0375009273948813E-2</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" ref="D19:J19" si="9">_xlfn.STDEV.S(D17,D14,D11)</f>
+        <f t="shared" ref="D19:J19" si="11">_xlfn.STDEV.S(D17,D14,D11)</f>
         <v>4.6735938768796052E-2</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.5803199422151463E-2</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.6964015874266534E-2</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.8044937583863036E-2</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9985466998326864E-2</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.1381597745103498E-2</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.3733179174582618E-2</v>
       </c>
     </row>
@@ -3801,31 +3811,31 @@
         <v>1.0612572955704369</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" ref="D24:J24" si="10">D18</f>
+        <f t="shared" ref="D24:J24" si="12">D18</f>
         <v>1.0882476711284479</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.137231893952324</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2302215422818155</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3779370128348452</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6170768970637468</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7318915255496137</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.7794239422146401</v>
       </c>
       <c r="K24" s="1"/>
@@ -3841,31 +3851,31 @@
         <v>1.1262670474014778</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" ref="D25:J25" si="11">D24^2</f>
+        <f t="shared" ref="D25:J25" si="13">D24^2</f>
         <v>1.1842829937164905</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2932963806223901</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5134450430942488</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8987104113402162</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6149376910173157</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.999448256270568</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.1663495661266907</v>
       </c>
     </row>
@@ -3878,27 +3888,27 @@
         <v>5.0375009273948813E-2</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" ref="D26:I26" si="12">D19</f>
+        <f t="shared" ref="D26:I26" si="14">D19</f>
         <v>4.6735938768796052E-2</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.5803199422151463E-2</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.6964015874266534E-2</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.8044937583863036E-2</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9985466998326864E-2</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.1381597745103498E-2</v>
       </c>
       <c r="J26" s="10">
@@ -3967,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3994,7 +4004,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4020,7 +4030,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
@@ -4044,7 +4054,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4099,32 +4109,32 @@
         <v>6</v>
       </c>
       <c r="C11" s="9">
-        <f>C9/C10</f>
+        <f t="shared" ref="C11:H11" si="0">C9/C10</f>
         <v>0.94581280788177335</v>
       </c>
       <c r="D11" s="9">
-        <f>D9/D10</f>
+        <f t="shared" si="0"/>
         <v>1.0395683453237408</v>
       </c>
       <c r="E11" s="9">
-        <f>E9/E10</f>
+        <f t="shared" si="0"/>
         <v>1.2644444444444443</v>
       </c>
       <c r="F11" s="9">
-        <f>F9/F10</f>
+        <f t="shared" si="0"/>
         <v>1.6089385474860334</v>
       </c>
       <c r="G11" s="9">
-        <f>G9/G10</f>
+        <f t="shared" si="0"/>
         <v>1.8673139158576051</v>
       </c>
       <c r="H11" s="10">
-        <f>H9/H10</f>
+        <f t="shared" si="0"/>
         <v>2.0179211469534049</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4179,27 +4189,27 @@
         <v>6</v>
       </c>
       <c r="C14" s="9">
-        <f>C12/C13</f>
+        <f t="shared" ref="C14:H14" si="1">C12/C13</f>
         <v>0.96551724137931028</v>
       </c>
       <c r="D14" s="9">
-        <f>D12/D13</f>
+        <f t="shared" si="1"/>
         <v>1.0195729537366547</v>
       </c>
       <c r="E14" s="9">
-        <f>E12/E13</f>
+        <f t="shared" si="1"/>
         <v>1.2435344827586206</v>
       </c>
       <c r="F14" s="9">
-        <f>F12/F13</f>
+        <f t="shared" si="1"/>
         <v>1.6078431372549018</v>
       </c>
       <c r="G14" s="9">
-        <f>G12/G13</f>
+        <f t="shared" si="1"/>
         <v>1.9006622516556291</v>
       </c>
       <c r="H14" s="10">
-        <f>H12/H13</f>
+        <f t="shared" si="1"/>
         <v>2.0215827338129495</v>
       </c>
     </row>
@@ -4215,23 +4225,23 @@
         <v>0.95566502463054182</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" ref="D15:H15" si="0">AVERAGE(D11,D14)</f>
+        <f t="shared" ref="D15:H15" si="2">AVERAGE(D11,D14)</f>
         <v>1.0295706495301977</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2539894636015325</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6083908423704676</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8839880837566172</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.019751940383177</v>
       </c>
     </row>
@@ -4245,23 +4255,23 @@
         <v>1.3933138545547718E-2</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ref="D16:H16" si="1">_xlfn.STDEV.S(D14,D11)</f>
+        <f t="shared" ref="D16:H16" si="3">_xlfn.STDEV.S(D14,D11)</f>
         <v>1.4138876983709006E-2</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4785575702396837E-2</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7457200261426163E-4</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3580834384068855E-2</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5891328982875781E-3</v>
       </c>
     </row>
@@ -4297,23 +4307,23 @@
         <v>0.95566502463054182</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:H21" si="2">D15</f>
+        <f t="shared" ref="D21:H21" si="4">D15</f>
         <v>1.0295706495301977</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2539894636015325</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6083908423704676</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8839880837566172</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.019751940383177</v>
       </c>
       <c r="I21" s="1"/>
@@ -4329,23 +4339,23 @@
         <v>0.91329563930209412</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" ref="D22:H22" si="3">D21^2</f>
+        <f t="shared" ref="D22:H22" si="5">D21^2</f>
         <v>1.0600157223740332</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5724895748236591</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5869211018211824</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5494110997369304</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0793979006816086</v>
       </c>
     </row>
@@ -4358,23 +4368,23 @@
         <v>1.3933138545547718E-2</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" ref="D23:H23" si="4">D16</f>
+        <f t="shared" ref="D23:H23" si="6">D16</f>
         <v>1.4138876983709006E-2</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4785575702396837E-2</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.7457200261426163E-4</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3580834384068855E-2</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5891328982875781E-3</v>
       </c>
     </row>
